--- a/battery_analysis_results/battery_data.xlsx
+++ b/battery_analysis_results/battery_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6cdc55dbcc9959ec/Documents/GitHub/sodium-ion-batteries/battery_analysis_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_5029EC4833AF0D522148BFA33978C416A65A5DD5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{457AE858-0109-4F03-BFA5-4D954515E35D}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_5029EC4833AF0D522148BFA33978C416A65A5DD5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58E36FA0-7E80-447D-BB6A-9811B2A1D216}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -6206,7 +6206,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D579"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -13922,9 +13924,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2262"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61:B64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="49.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -77871,9 +77885,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1167"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1131" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
